--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.6308825</v>
+        <v>8.4153035</v>
       </c>
       <c r="H2">
-        <v>31.261765</v>
+        <v>16.830607</v>
       </c>
       <c r="I2">
-        <v>0.08061597743527854</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J2">
-        <v>0.05642173194834237</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N2">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O2">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P2">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q2">
-        <v>11.2026378568675</v>
+        <v>3.0142691453615</v>
       </c>
       <c r="R2">
-        <v>67.21582714120501</v>
+        <v>12.057076581446</v>
       </c>
       <c r="S2">
-        <v>0.01834987157322162</v>
+        <v>0.003402194458165331</v>
       </c>
       <c r="T2">
-        <v>0.01284275857130207</v>
+        <v>0.001615154509578041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.6308825</v>
+        <v>8.4153035</v>
       </c>
       <c r="H3">
-        <v>31.261765</v>
+        <v>16.830607</v>
       </c>
       <c r="I3">
-        <v>0.08061597743527854</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J3">
-        <v>0.05642173194834237</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N3">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O3">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P3">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q3">
-        <v>38.01359763999333</v>
+        <v>4.8376466159205</v>
       </c>
       <c r="R3">
-        <v>228.08158583996</v>
+        <v>29.025879695523</v>
       </c>
       <c r="S3">
-        <v>0.06226610586205691</v>
+        <v>0.005460233878774326</v>
       </c>
       <c r="T3">
-        <v>0.0435789733770403</v>
+        <v>0.003888279233196278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.268178</v>
+        <v>8.4153035</v>
       </c>
       <c r="H4">
-        <v>75.804534</v>
+        <v>16.830607</v>
       </c>
       <c r="I4">
-        <v>0.130320144590595</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J4">
-        <v>0.1368132316846795</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N4">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O4">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P4">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q4">
-        <v>18.109677904422</v>
+        <v>47.0497009940915</v>
       </c>
       <c r="R4">
-        <v>162.987101139798</v>
+        <v>282.298205964549</v>
       </c>
       <c r="S4">
-        <v>0.02966357281422236</v>
+        <v>0.05310482384320615</v>
       </c>
       <c r="T4">
-        <v>0.03114153435585161</v>
+        <v>0.03781639913534906</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.268178</v>
+        <v>8.4153035</v>
       </c>
       <c r="H5">
-        <v>75.804534</v>
+        <v>16.830607</v>
       </c>
       <c r="I5">
-        <v>0.130320144590595</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J5">
-        <v>0.1368132316846795</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N5">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O5">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P5">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q5">
-        <v>61.451063405264</v>
+        <v>1.9945026672315</v>
       </c>
       <c r="R5">
-        <v>553.0595706473761</v>
+        <v>11.967016003389</v>
       </c>
       <c r="S5">
-        <v>0.1006565717763727</v>
+        <v>0.00225118779843967</v>
       </c>
       <c r="T5">
-        <v>0.1056716973288279</v>
+        <v>0.001603090080211488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,61 +791,61 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.99944133333333</v>
+        <v>25.268178</v>
       </c>
       <c r="H6">
-        <v>116.998324</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I6">
-        <v>0.2011388725183283</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J6">
-        <v>0.2111604407215431</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N6">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O6">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P6">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q6">
-        <v>27.95086060415867</v>
+        <v>9.050783409641998</v>
       </c>
       <c r="R6">
-        <v>251.557745437428</v>
+        <v>54.30470045785199</v>
       </c>
       <c r="S6">
-        <v>0.04578338682374829</v>
+        <v>0.0102155858264096</v>
       </c>
       <c r="T6">
-        <v>0.04806450398366749</v>
+        <v>0.007274606016084975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.99944133333333</v>
+        <v>25.268178</v>
       </c>
       <c r="H7">
-        <v>116.998324</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I7">
-        <v>0.2011388725183283</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J7">
-        <v>0.2111604407215431</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N7">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O7">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P7">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q7">
-        <v>94.84487334799287</v>
+        <v>14.525740609614</v>
       </c>
       <c r="R7">
-        <v>853.603860131936</v>
+        <v>130.731665486526</v>
       </c>
       <c r="S7">
-        <v>0.15535548569458</v>
+        <v>0.016395149808976</v>
       </c>
       <c r="T7">
-        <v>0.1630959367378756</v>
+        <v>0.01751268955031278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.9753255</v>
+        <v>25.268178</v>
       </c>
       <c r="H8">
-        <v>23.950651</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I8">
-        <v>0.06176251214786597</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J8">
-        <v>0.04322651682367577</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N8">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O8">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P8">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q8">
-        <v>8.582703810524501</v>
+        <v>141.273599884482</v>
       </c>
       <c r="R8">
-        <v>51.496222863147</v>
+        <v>1271.462398960338</v>
       </c>
       <c r="S8">
-        <v>0.01405843112009357</v>
+        <v>0.1594549907235998</v>
       </c>
       <c r="T8">
-        <v>0.009839253427262169</v>
+        <v>0.1703238934884011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9753255</v>
+        <v>25.268178</v>
       </c>
       <c r="H9">
-        <v>23.950651</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I9">
-        <v>0.06176251214786597</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J9">
-        <v>0.04322651682367577</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N9">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O9">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P9">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q9">
-        <v>29.12344873457733</v>
+        <v>5.988785599601999</v>
       </c>
       <c r="R9">
-        <v>174.740692407464</v>
+        <v>53.899070396418</v>
       </c>
       <c r="S9">
-        <v>0.0477040810277724</v>
+        <v>0.006759520200596652</v>
       </c>
       <c r="T9">
-        <v>0.0333872633964136</v>
+        <v>0.007220268198910145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.64038533333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H10">
-        <v>70.921156</v>
+        <v>121.449769</v>
       </c>
       <c r="I10">
-        <v>0.1219248350560686</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J10">
-        <v>0.1279996332036458</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N10">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O10">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P10">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q10">
-        <v>16.94304052801467</v>
+        <v>14.50065710278033</v>
       </c>
       <c r="R10">
-        <v>152.487364752132</v>
+        <v>87.003942616682</v>
       </c>
       <c r="S10">
-        <v>0.02775262591911485</v>
+        <v>0.01636683814740053</v>
       </c>
       <c r="T10">
-        <v>0.0291353762049472</v>
+        <v>0.01165496539058641</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.64038533333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H11">
-        <v>70.921156</v>
+        <v>121.449769</v>
       </c>
       <c r="I11">
-        <v>0.1219248350560686</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J11">
-        <v>0.1279996332036458</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N11">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O11">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P11">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q11">
-        <v>57.49234543319821</v>
+        <v>23.272326185549</v>
       </c>
       <c r="R11">
-        <v>517.4311088987839</v>
+        <v>209.450935669941</v>
       </c>
       <c r="S11">
-        <v>0.09417220913695377</v>
+        <v>0.0262673886633289</v>
       </c>
       <c r="T11">
-        <v>0.09886425699869862</v>
+        <v>0.02805784810251854</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.37889633333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H12">
-        <v>235.136689</v>
+        <v>121.449769</v>
       </c>
       <c r="I12">
-        <v>0.4042376582518636</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J12">
-        <v>0.4243784456181135</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N12">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O12">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P12">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q12">
-        <v>56.17407662320367</v>
+        <v>226.3406311787204</v>
       </c>
       <c r="R12">
-        <v>505.566689608833</v>
+        <v>2037.065680608483</v>
       </c>
       <c r="S12">
-        <v>0.09201289062006049</v>
+        <v>0.2554698349478455</v>
       </c>
       <c r="T12">
-        <v>0.09659735232743064</v>
+        <v>0.2728833808192386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.37889633333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H13">
-        <v>235.136689</v>
+        <v>121.449769</v>
       </c>
       <c r="I13">
-        <v>0.4042376582518636</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J13">
-        <v>0.4243784456181135</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,772 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N13">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O13">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P13">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q13">
-        <v>190.6139227060329</v>
+        <v>9.594896100307002</v>
       </c>
       <c r="R13">
-        <v>1715.525304354296</v>
+        <v>86.35406490276301</v>
       </c>
       <c r="S13">
-        <v>0.3122247676318031</v>
+        <v>0.01082972381194636</v>
       </c>
       <c r="T13">
-        <v>0.3277810932906828</v>
+        <v>0.01156790839022483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.0550545</v>
+      </c>
+      <c r="H14">
+        <v>20.110109</v>
+      </c>
+      <c r="I14">
+        <v>0.07673162517426207</v>
+      </c>
+      <c r="J14">
+        <v>0.05367630990912667</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.358189</v>
+      </c>
+      <c r="N14">
+        <v>0.716378</v>
+      </c>
+      <c r="O14">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P14">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q14">
+        <v>3.6016099163005</v>
+      </c>
+      <c r="R14">
+        <v>14.406439665202</v>
+      </c>
+      <c r="S14">
+        <v>0.004065123818344802</v>
+      </c>
+      <c r="T14">
+        <v>0.001929872953450576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.0550545</v>
+      </c>
+      <c r="H15">
+        <v>20.110109</v>
+      </c>
+      <c r="I15">
+        <v>0.07673162517426207</v>
+      </c>
+      <c r="J15">
+        <v>0.05367630990912667</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.574863</v>
+      </c>
+      <c r="N15">
+        <v>1.724589</v>
+      </c>
+      <c r="O15">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P15">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q15">
+        <v>5.7802787950335</v>
+      </c>
+      <c r="R15">
+        <v>34.681672770201</v>
+      </c>
+      <c r="S15">
+        <v>0.006524179339915934</v>
+      </c>
+      <c r="T15">
+        <v>0.004645923893417128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.0550545</v>
+      </c>
+      <c r="H16">
+        <v>20.110109</v>
+      </c>
+      <c r="I16">
+        <v>0.07673162517426207</v>
+      </c>
+      <c r="J16">
+        <v>0.05367630990912667</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.590969</v>
+      </c>
+      <c r="N16">
+        <v>16.772907</v>
+      </c>
+      <c r="O16">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P16">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q16">
+        <v>56.21749800281051</v>
+      </c>
+      <c r="R16">
+        <v>337.304988016863</v>
+      </c>
+      <c r="S16">
+        <v>0.06345248248697594</v>
+      </c>
+      <c r="T16">
+        <v>0.04518505533397431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.0550545</v>
+      </c>
+      <c r="H17">
+        <v>20.110109</v>
+      </c>
+      <c r="I17">
+        <v>0.07673162517426207</v>
+      </c>
+      <c r="J17">
+        <v>0.05367630990912667</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.237009</v>
+      </c>
+      <c r="N17">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P17">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q17">
+        <v>2.383138411990501</v>
+      </c>
+      <c r="R17">
+        <v>14.298830471943</v>
+      </c>
+      <c r="S17">
+        <v>0.002689839529025412</v>
+      </c>
+      <c r="T17">
+        <v>0.001915457728284653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>32.434321</v>
+      </c>
+      <c r="H18">
+        <v>97.30296300000001</v>
+      </c>
+      <c r="I18">
+        <v>0.247511155882218</v>
+      </c>
+      <c r="J18">
+        <v>0.2597133609302807</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.358189</v>
+      </c>
+      <c r="N18">
+        <v>0.716378</v>
+      </c>
+      <c r="O18">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P18">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q18">
+        <v>11.617617004669</v>
+      </c>
+      <c r="R18">
+        <v>69.705702028014</v>
+      </c>
+      <c r="S18">
+        <v>0.01311276143047668</v>
+      </c>
+      <c r="T18">
+        <v>0.009337709536248767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>32.434321</v>
+      </c>
+      <c r="H19">
+        <v>97.30296300000001</v>
+      </c>
+      <c r="I19">
+        <v>0.247511155882218</v>
+      </c>
+      <c r="J19">
+        <v>0.2597133609302807</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.574863</v>
+      </c>
+      <c r="N19">
+        <v>1.724589</v>
+      </c>
+      <c r="O19">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P19">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q19">
+        <v>18.645291073023</v>
+      </c>
+      <c r="R19">
+        <v>167.807619657207</v>
+      </c>
+      <c r="S19">
+        <v>0.02104487121103138</v>
+      </c>
+      <c r="T19">
+        <v>0.02247934910258233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>32.434321</v>
+      </c>
+      <c r="H20">
+        <v>97.30296300000001</v>
+      </c>
+      <c r="I20">
+        <v>0.247511155882218</v>
+      </c>
+      <c r="J20">
+        <v>0.2597133609302807</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.590969</v>
+      </c>
+      <c r="N20">
+        <v>16.772907</v>
+      </c>
+      <c r="O20">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P20">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q20">
+        <v>181.339283247049</v>
+      </c>
+      <c r="R20">
+        <v>1632.053549223441</v>
+      </c>
+      <c r="S20">
+        <v>0.2046769796453571</v>
+      </c>
+      <c r="T20">
+        <v>0.2186283409659617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>32.434321</v>
+      </c>
+      <c r="H21">
+        <v>97.30296300000001</v>
+      </c>
+      <c r="I21">
+        <v>0.247511155882218</v>
+      </c>
+      <c r="J21">
+        <v>0.2597133609302807</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.237009</v>
+      </c>
+      <c r="N21">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P21">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q21">
+        <v>7.687225985889002</v>
+      </c>
+      <c r="R21">
+        <v>69.18503387300102</v>
+      </c>
+      <c r="S21">
+        <v>0.008676543595352868</v>
+      </c>
+      <c r="T21">
+        <v>0.009267961325487876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>14.38574166666667</v>
+      </c>
+      <c r="H22">
+        <v>43.157225</v>
+      </c>
+      <c r="I22">
+        <v>0.1097797468348313</v>
+      </c>
+      <c r="J22">
+        <v>0.1151918462459805</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.358189</v>
+      </c>
+      <c r="N22">
+        <v>0.716378</v>
+      </c>
+      <c r="O22">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P22">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q22">
+        <v>5.152814421841667</v>
+      </c>
+      <c r="R22">
+        <v>30.91688653105</v>
+      </c>
+      <c r="S22">
+        <v>0.005815962617977051</v>
+      </c>
+      <c r="T22">
+        <v>0.004141596710066617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>14.38574166666667</v>
+      </c>
+      <c r="H23">
+        <v>43.157225</v>
+      </c>
+      <c r="I23">
+        <v>0.1097797468348313</v>
+      </c>
+      <c r="J23">
+        <v>0.1151918462459805</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.574863</v>
+      </c>
+      <c r="N23">
+        <v>1.724589</v>
+      </c>
+      <c r="O23">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P23">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q23">
+        <v>8.269830611725</v>
+      </c>
+      <c r="R23">
+        <v>74.428475505525</v>
+      </c>
+      <c r="S23">
+        <v>0.009334127286036538</v>
+      </c>
+      <c r="T23">
+        <v>0.009970367778766342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>14.38574166666667</v>
+      </c>
+      <c r="H24">
+        <v>43.157225</v>
+      </c>
+      <c r="I24">
+        <v>0.1097797468348313</v>
+      </c>
+      <c r="J24">
+        <v>0.1151918462459805</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.590969</v>
+      </c>
+      <c r="N24">
+        <v>16.772907</v>
+      </c>
+      <c r="O24">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P24">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q24">
+        <v>80.43023570034168</v>
+      </c>
+      <c r="R24">
+        <v>723.8721213030751</v>
+      </c>
+      <c r="S24">
+        <v>0.09078131015265276</v>
+      </c>
+      <c r="T24">
+        <v>0.09696922078770331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>14.38574166666667</v>
+      </c>
+      <c r="H25">
+        <v>43.157225</v>
+      </c>
+      <c r="I25">
+        <v>0.1097797468348313</v>
+      </c>
+      <c r="J25">
+        <v>0.1151918462459805</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.237009</v>
+      </c>
+      <c r="N25">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P25">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q25">
+        <v>3.409550246675001</v>
+      </c>
+      <c r="R25">
+        <v>30.68595222007501</v>
+      </c>
+      <c r="S25">
+        <v>0.003848346778164943</v>
+      </c>
+      <c r="T25">
+        <v>0.004110660969444254</v>
       </c>
     </row>
   </sheetData>
